--- a/Plantilla_RA_per_Materia_Ordenada.xlsx
+++ b/Plantilla_RA_per_Materia_Ordenada.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="105">
   <si>
     <t>Matèria</t>
   </si>
@@ -28,28 +28,307 @@
     <t>Clasificación</t>
   </si>
   <si>
-    <t>Bases psicològiques</t>
+    <t>Assignatures que ho treballen</t>
+  </si>
+  <si>
+    <t>Bases teóricas e históricas</t>
+  </si>
+  <si>
+    <t>Bases sociológicas y antropológicas</t>
+  </si>
+  <si>
+    <t>Bases psicológicas</t>
+  </si>
+  <si>
+    <t>Investigación y documentación en la educación</t>
+  </si>
+  <si>
+    <t>Bases políticas, legales y económicas</t>
+  </si>
+  <si>
+    <t>Planificación e intervención en procesos educativos y formativos</t>
+  </si>
+  <si>
+    <t>Tecnología educativa</t>
+  </si>
+  <si>
+    <t>Complementos de formación pedagógica</t>
+  </si>
+  <si>
+    <t>Pedagogía escolar</t>
+  </si>
+  <si>
+    <t>Formación y gestión en la organización</t>
+  </si>
+  <si>
+    <t>RA02</t>
+  </si>
+  <si>
+    <t>RA04</t>
+  </si>
+  <si>
+    <t>RA05</t>
+  </si>
+  <si>
+    <t>RA06</t>
+  </si>
+  <si>
+    <t>RA07</t>
+  </si>
+  <si>
+    <t>RA08</t>
+  </si>
+  <si>
+    <t>RA09</t>
+  </si>
+  <si>
+    <t>RA12</t>
+  </si>
+  <si>
+    <t>RA22</t>
+  </si>
+  <si>
+    <t>RA23</t>
+  </si>
+  <si>
+    <t>RA25</t>
+  </si>
+  <si>
+    <t>RA27</t>
+  </si>
+  <si>
+    <t>RA34</t>
+  </si>
+  <si>
+    <t>RA43</t>
+  </si>
+  <si>
+    <t>RA44</t>
   </si>
   <si>
     <t>RA01</t>
   </si>
   <si>
-    <t>RA02</t>
-  </si>
-  <si>
-    <t>RA05</t>
-  </si>
-  <si>
-    <t>Apoyar la equidad, la libertad, la tolerancia...</t>
-  </si>
-  <si>
-    <t>Comprender como interactúan los elementos...</t>
-  </si>
-  <si>
-    <t>Identificar los pasos necesarios para futuros sostenibles...</t>
+    <t>RA11</t>
+  </si>
+  <si>
+    <t>RA14</t>
+  </si>
+  <si>
+    <t>RA15</t>
+  </si>
+  <si>
+    <t>RA16</t>
+  </si>
+  <si>
+    <t>RA17</t>
+  </si>
+  <si>
+    <t>RA18</t>
+  </si>
+  <si>
+    <t>RA19</t>
+  </si>
+  <si>
+    <t>RA20</t>
+  </si>
+  <si>
+    <t>RA21</t>
+  </si>
+  <si>
+    <t>RA26</t>
+  </si>
+  <si>
+    <t>RA10</t>
+  </si>
+  <si>
+    <t>RA13</t>
+  </si>
+  <si>
+    <t>RA31</t>
+  </si>
+  <si>
+    <t>RA40</t>
+  </si>
+  <si>
+    <t>RA35</t>
+  </si>
+  <si>
+    <t>RA36</t>
+  </si>
+  <si>
+    <t>RA39</t>
+  </si>
+  <si>
+    <t>RA42</t>
+  </si>
+  <si>
+    <t>RA03</t>
+  </si>
+  <si>
+    <t>RA28</t>
+  </si>
+  <si>
+    <t>RA37</t>
+  </si>
+  <si>
+    <t>RA29</t>
+  </si>
+  <si>
+    <t>RA30</t>
+  </si>
+  <si>
+    <t>RA32</t>
+  </si>
+  <si>
+    <t>RA33</t>
+  </si>
+  <si>
+    <t>RA38</t>
+  </si>
+  <si>
+    <t>RA41</t>
+  </si>
+  <si>
+    <t>RA24</t>
+  </si>
+  <si>
+    <t>Comprender como interactúan los elementos dentro de los sistemas y entre ellos desde un pensamiento sistémico; así como cuestionar el statu quo, desde un pensamiento crítico y contextualizar los problemas socioambientales en términos espaciales, temporales, g locales con el fin de identificar enfoques que permitan prevenir y anticipar problemas así como mitigar y adaptarse a los ya generados.</t>
+  </si>
+  <si>
+    <t>Identificar la responsabilidad política y reclamar la rendición de cuentas por comportamientos insostenibles, desde la conducta personal y profesional, así como exigir políticas eficaces para la sostenibilidad.</t>
+  </si>
+  <si>
+    <t>Comprender la complejidad de los procesos educativos en general y de los procesos formativos en particular (fines y funciones de la educación y del sistema educativo, teorías del desarrollo y del aprendizaje, el entorno cultural y social y el ámbito institucional y organizativo de los centros, el diseño y desarrollo de programas, el rol de los educadores...) (A1)</t>
+  </si>
+  <si>
+    <t>Poseer una sólida formación científico-cultural y tecnológica. (A2)</t>
+  </si>
+  <si>
+    <t>Respetar las diferencias culturales y personales de los educandos y de los demás miembros de toda comunidad educativa. (A3)</t>
+  </si>
+  <si>
+    <t>Analizar y cuestionar las concepciones de la educación emanadas de la investigación. (A4)</t>
+  </si>
+  <si>
+    <t>Diseñar y desarrollar planes, proyectos y programas educativos adaptados a contextos educativos y formativos. (A5)</t>
+  </si>
+  <si>
+    <t>Promover la calidad de los contextos en los que se desarrolla el proceso formativo. (A8)</t>
+  </si>
+  <si>
+    <t>Comprender y expresar ideas, conceptos y sentimientos oralmente y por escrito con un nivel de uso adecuado a los destinatarios. (A18)</t>
+  </si>
+  <si>
+    <t>Buscar, seleccionar, ordenar, relacionar, evaluar y valorar información científica proveniente de distintas fuentes. (A19)</t>
+  </si>
+  <si>
+    <t>Comprender los referentes teóricos, históricos, culturales, comparados políticos, ambientales y legales y antropológicos de la educación. (B1)</t>
+  </si>
+  <si>
+    <t>Conocer y comprender los procesos de enseñanza aprendizaje y su incidencia en la formación integral. (B3)</t>
+  </si>
+  <si>
+    <t>Evaluar políticas, instituciones y sistemas educativos. (B10)</t>
+  </si>
+  <si>
+    <t>Identificar planteamientos y problemas educativos, indagar sobre ellos: obtener, registrar, tratar e interpretar información relevante para emitir juicios argumentados que permitan mejorar la práctica educativa. (B19)</t>
+  </si>
+  <si>
+    <t>Realizar estudios prospectivos y evaluativos sobre características, necesidades y demandas pedagógicas. (B20)</t>
+  </si>
+  <si>
+    <t>Apoyar la equidad, la libertad, la tolerancia y respeto a la diversidad, la accesibilidad universal, inclusión social, la justicia, la paz, la participación, la igualdad de género, trato y no discriminación, así como la prevención, sensibilización y formación en materia de violencias sexuales; y respetar las necesidades y derechos de las generaciones presentes y futuras, así como de otras especies, y de la propia naturaleza.</t>
+  </si>
+  <si>
+    <t>Utilizar e incorporar adecuadamente en las diferentes actividades las tecnologías de la información y la comunicación. (A7)</t>
+  </si>
+  <si>
+    <t>Participar en proyectos de investigación relacionados con la educación y la formación, introduciendo propuestas de innovación encaminadas a la mejora de la calidad. (A10)</t>
+  </si>
+  <si>
+    <t>Saber relacionarse y comunicarse, así como poseer equilibrio emocional en las variadas circunstancias de la actividad profesional. (A11)</t>
+  </si>
+  <si>
+    <t>Trabajar en equipo con los compañeros como concisión necesaria para la mejora de su actividad profesional, compartiendo saberes y experiencias. (A12)</t>
+  </si>
+  <si>
+    <t>Dinamizar los contextos en los que interviene, promoviendo la construcción participada de reglas de convivencia democrática, y afrontar y resolver de forma colaborativa situaciones problemáticas y conflictos interpersonales de naturaleza diversa. (A13)</t>
+  </si>
+  <si>
+    <t>Colaborar con los distintos sectores de la comunidad educativa y del entorno. (A14)</t>
+  </si>
+  <si>
+    <t>Tener una imagen realista de sí mismo, actuar conforme a las propias convicciones, asumir responsabilidades, tomar decisiones. (A15)</t>
+  </si>
+  <si>
+    <t>Asumir la dimensión deontológica propia de todo profesional de la educación. (A16)</t>
+  </si>
+  <si>
+    <t>Asumir la necesidad del desarrollo profesional continuo, mediante la autoevaluación de la propia práctica. (A17)</t>
+  </si>
+  <si>
+    <t>Diagnosticar las necesidades y posibilidades de desarrollo de las personas para fundamentar las acciones educativas. (B2)</t>
+  </si>
+  <si>
+    <t>Preparar, seleccionar o construir materiales didácticos y utilizarlos en los marcos específicos de las distintas áreas de formación. (A6)</t>
+  </si>
+  <si>
+    <t>Utilizar la evaluación como elemento regulador y promotor de la mejora de la formación y del aprendizaje. (A9).</t>
+  </si>
+  <si>
+    <t>Desarrollar estrategias y técnicas para promover la participación y el aprendizaje a lo largo de la vida. (B7)</t>
+  </si>
+  <si>
+    <t>Aplicar estrategias y técnicas de tutorización, entrenamiento, asesoramiento entre iguales, consulta y orientación en procesos educativos y formativos. (B16)</t>
+  </si>
+  <si>
+    <t>Evaluar planes, programas, proyectos, centros, acciones y recursos educativos y formativos. (B11)</t>
+  </si>
+  <si>
+    <t>Evaluar los procesos de enseñanza-aprendizaje y la intervención de los agentes implicados en estos procesos. (B12)</t>
+  </si>
+  <si>
+    <t>Desarrollar procesos y modelos de gestión de calidad de la educación y la formación. (B15)</t>
+  </si>
+  <si>
+    <t>Analizar, diseñar y evaluar las aplicaciones de las tecnologías de la información y la comunicación asociadas a los procesos educativos y formativos. (B18)</t>
+  </si>
+  <si>
+    <t>Identificar los pasos necesarios para futuros sostenibles y gestionar transiciones ante la incertidumbre y el riesgo; creando y experimentando con propuestas novedosas, desde un enfoque inter y transdisciplinar.</t>
+  </si>
+  <si>
+    <t>Diseñar y aplicar planes, programas, proyectos, acciones y recursos adaptados a los distintos niveles del sistema educativo, en las modalidades presenciales y virtuales. (B4)</t>
+  </si>
+  <si>
+    <t>Organizar y gestionar centros instituciones, servicios y recursos educativos y formativos. (B13)</t>
+  </si>
+  <si>
+    <t>Diseñar y aplicar planes de formación del profesorado, de formadores y de otros profesionales, adecuados a las nuevas situaciones, necesidades y contextos. (B5)</t>
+  </si>
+  <si>
+    <t>Diseñar y aplicar planes, programas, proyectos y propuestas innovadoras de formación y desarrollo de recursos formativos en contextos laborales, en las modalidades presenciales y virtuales. (B6)</t>
+  </si>
+  <si>
+    <t>Aplicar y coordinar programas educativos de desarrollo personal, social y profesional. (B8)</t>
+  </si>
+  <si>
+    <t>Desarrollar y coordinar intervenciones educativas con personas o grupos, con necesidades específicas, en situaciones de riesgo, de desigualdad o discriminación por razón de género, clase, etnia, edad y/o religión. (B9)</t>
+  </si>
+  <si>
+    <t>Supervisar, dirigir, gestionar y coordinar planes, programas, proyectos y centros educativos y formativos. (B14)</t>
+  </si>
+  <si>
+    <t>Asesorar sobre el uso pedagógico e integración curricular de los medios didácticos. (B17)</t>
+  </si>
+  <si>
+    <t>Comprender, hablar y escribir en lengua inglesa, en un nivel medio. (A20)</t>
   </si>
   <si>
     <t>Competencias</t>
+  </si>
+  <si>
+    <t>Habilidades o destrezas</t>
   </si>
 </sst>
 </file>
@@ -407,13 +686,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,47 +705,3340 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" t="s">
+        <v>87</v>
+      </c>
+      <c r="D56" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" t="s">
+        <v>75</v>
+      </c>
+      <c r="D63" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" t="s">
+        <v>77</v>
+      </c>
+      <c r="D66" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" t="s">
+        <v>80</v>
+      </c>
+      <c r="D68" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69" t="s">
+        <v>81</v>
+      </c>
+      <c r="D69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
+        <v>38</v>
+      </c>
+      <c r="C70" t="s">
+        <v>82</v>
+      </c>
+      <c r="D70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s">
+        <v>39</v>
+      </c>
+      <c r="C71" t="s">
+        <v>83</v>
+      </c>
+      <c r="D71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" t="s">
+        <v>67</v>
+      </c>
+      <c r="D72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74" t="s">
+        <v>69</v>
+      </c>
+      <c r="D74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" t="s">
+        <v>70</v>
+      </c>
+      <c r="D76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77" t="s">
+        <v>71</v>
+      </c>
+      <c r="D77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" t="s">
+        <v>45</v>
+      </c>
+      <c r="C78" t="s">
+        <v>89</v>
+      </c>
+      <c r="D78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79" t="s">
+        <v>90</v>
+      </c>
+      <c r="D79" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80" t="s">
+        <v>91</v>
+      </c>
+      <c r="D80" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" t="s">
+        <v>48</v>
+      </c>
+      <c r="C81" t="s">
+        <v>92</v>
+      </c>
+      <c r="D81" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" t="s">
+        <v>72</v>
+      </c>
+      <c r="D82" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83" t="s">
+        <v>73</v>
+      </c>
+      <c r="D83" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" t="s">
+        <v>49</v>
+      </c>
+      <c r="C84" t="s">
+        <v>93</v>
+      </c>
+      <c r="D84" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" t="s">
+        <v>60</v>
+      </c>
+      <c r="D85" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" t="s">
+        <v>61</v>
+      </c>
+      <c r="D86" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" t="s">
+        <v>62</v>
+      </c>
+      <c r="D87" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" t="s">
+        <v>34</v>
+      </c>
+      <c r="C88" t="s">
+        <v>78</v>
+      </c>
+      <c r="D88" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" t="s">
+        <v>36</v>
+      </c>
+      <c r="C89" t="s">
+        <v>80</v>
+      </c>
+      <c r="D89" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" t="s">
+        <v>67</v>
+      </c>
+      <c r="D90" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" t="s">
+        <v>24</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" t="s">
+        <v>25</v>
+      </c>
+      <c r="C92" t="s">
+        <v>69</v>
+      </c>
+      <c r="D92" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" t="s">
+        <v>50</v>
+      </c>
+      <c r="C93" t="s">
+        <v>94</v>
+      </c>
+      <c r="D93" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" t="s">
+        <v>27</v>
+      </c>
+      <c r="C94" t="s">
+        <v>71</v>
+      </c>
+      <c r="D94" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" t="s">
+        <v>45</v>
+      </c>
+      <c r="C95" t="s">
+        <v>89</v>
+      </c>
+      <c r="D95" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" t="s">
+        <v>51</v>
+      </c>
+      <c r="C96" t="s">
+        <v>95</v>
+      </c>
+      <c r="D96" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" t="s">
+        <v>61</v>
+      </c>
+      <c r="D97" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" t="s">
+        <v>62</v>
+      </c>
+      <c r="D98" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D99" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" t="s">
+        <v>20</v>
+      </c>
+      <c r="C100" t="s">
+        <v>64</v>
+      </c>
+      <c r="D100" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" t="s">
+        <v>21</v>
+      </c>
+      <c r="C101" t="s">
+        <v>65</v>
+      </c>
+      <c r="D101" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" t="s">
+        <v>41</v>
+      </c>
+      <c r="C102" t="s">
+        <v>85</v>
+      </c>
+      <c r="D102" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" t="s">
+        <v>31</v>
+      </c>
+      <c r="C103" t="s">
+        <v>75</v>
+      </c>
+      <c r="D103" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" t="s">
+        <v>22</v>
+      </c>
+      <c r="C104" t="s">
+        <v>66</v>
+      </c>
+      <c r="D104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" t="s">
+        <v>42</v>
+      </c>
+      <c r="C105" t="s">
+        <v>86</v>
+      </c>
+      <c r="D105" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106" t="s">
+        <v>32</v>
+      </c>
+      <c r="C106" t="s">
+        <v>76</v>
+      </c>
+      <c r="D106" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107" t="s">
+        <v>33</v>
+      </c>
+      <c r="C107" t="s">
+        <v>77</v>
+      </c>
+      <c r="D107" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108" t="s">
+        <v>34</v>
+      </c>
+      <c r="C108" t="s">
+        <v>78</v>
+      </c>
+      <c r="D108" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109" t="s">
+        <v>35</v>
+      </c>
+      <c r="C109" t="s">
+        <v>79</v>
+      </c>
+      <c r="D109" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110" t="s">
+        <v>36</v>
+      </c>
+      <c r="C110" t="s">
+        <v>80</v>
+      </c>
+      <c r="D110" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>10</v>
+      </c>
+      <c r="B111" t="s">
+        <v>37</v>
+      </c>
+      <c r="C111" t="s">
+        <v>81</v>
+      </c>
+      <c r="D111" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" t="s">
+        <v>38</v>
+      </c>
+      <c r="C112" t="s">
+        <v>82</v>
+      </c>
+      <c r="D112" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113" t="s">
+        <v>39</v>
+      </c>
+      <c r="C113" t="s">
+        <v>83</v>
+      </c>
+      <c r="D113" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" t="s">
+        <v>23</v>
+      </c>
+      <c r="C114" t="s">
+        <v>67</v>
+      </c>
+      <c r="D114" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" t="s">
+        <v>24</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116" t="s">
+        <v>50</v>
+      </c>
+      <c r="C116" t="s">
+        <v>94</v>
+      </c>
+      <c r="D116" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" t="s">
+        <v>52</v>
+      </c>
+      <c r="C117" t="s">
+        <v>96</v>
+      </c>
+      <c r="D117" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>10</v>
+      </c>
+      <c r="B118" t="s">
+        <v>53</v>
+      </c>
+      <c r="C118" t="s">
+        <v>97</v>
+      </c>
+      <c r="D118" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>10</v>
+      </c>
+      <c r="B119" t="s">
+        <v>43</v>
+      </c>
+      <c r="C119" t="s">
+        <v>87</v>
+      </c>
+      <c r="D119" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>10</v>
+      </c>
+      <c r="B120" t="s">
+        <v>54</v>
+      </c>
+      <c r="C120" t="s">
+        <v>98</v>
+      </c>
+      <c r="D120" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>10</v>
+      </c>
+      <c r="B121" t="s">
+        <v>55</v>
+      </c>
+      <c r="C121" t="s">
+        <v>99</v>
+      </c>
+      <c r="D121" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" t="s">
+        <v>45</v>
+      </c>
+      <c r="C122" t="s">
+        <v>89</v>
+      </c>
+      <c r="D122" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123" t="s">
+        <v>46</v>
+      </c>
+      <c r="C123" t="s">
+        <v>90</v>
+      </c>
+      <c r="D123" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>10</v>
+      </c>
+      <c r="B124" t="s">
+        <v>51</v>
+      </c>
+      <c r="C124" t="s">
+        <v>95</v>
+      </c>
+      <c r="D124" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" t="s">
+        <v>56</v>
+      </c>
+      <c r="C125" t="s">
+        <v>100</v>
+      </c>
+      <c r="D125" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" t="s">
+        <v>47</v>
+      </c>
+      <c r="C126" t="s">
+        <v>91</v>
+      </c>
+      <c r="D126" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" t="s">
+        <v>44</v>
+      </c>
+      <c r="C127" t="s">
+        <v>88</v>
+      </c>
+      <c r="D127" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>10</v>
+      </c>
+      <c r="B128" t="s">
+        <v>57</v>
+      </c>
+      <c r="C128" t="s">
+        <v>101</v>
+      </c>
+      <c r="D128" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" t="s">
+        <v>48</v>
+      </c>
+      <c r="C129" t="s">
+        <v>92</v>
+      </c>
+      <c r="D129" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>10</v>
+      </c>
+      <c r="B130" t="s">
+        <v>28</v>
+      </c>
+      <c r="C130" t="s">
+        <v>72</v>
+      </c>
+      <c r="D130" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>10</v>
+      </c>
+      <c r="B131" t="s">
+        <v>29</v>
+      </c>
+      <c r="C131" t="s">
+        <v>73</v>
+      </c>
+      <c r="D131" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B132" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132" t="s">
+        <v>62</v>
+      </c>
+      <c r="D132" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B133" t="s">
+        <v>21</v>
+      </c>
+      <c r="C133" t="s">
+        <v>65</v>
+      </c>
+      <c r="D133" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
         <v>11</v>
+      </c>
+      <c r="B134" t="s">
+        <v>41</v>
+      </c>
+      <c r="C134" t="s">
+        <v>85</v>
+      </c>
+      <c r="D134" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>11</v>
+      </c>
+      <c r="B135" t="s">
+        <v>31</v>
+      </c>
+      <c r="C135" t="s">
+        <v>75</v>
+      </c>
+      <c r="D135" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>11</v>
+      </c>
+      <c r="B136" t="s">
+        <v>34</v>
+      </c>
+      <c r="C136" t="s">
+        <v>78</v>
+      </c>
+      <c r="D136" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>11</v>
+      </c>
+      <c r="B137" t="s">
+        <v>39</v>
+      </c>
+      <c r="C137" t="s">
+        <v>83</v>
+      </c>
+      <c r="D137" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138" t="s">
+        <v>23</v>
+      </c>
+      <c r="C138" t="s">
+        <v>67</v>
+      </c>
+      <c r="D138" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>11</v>
+      </c>
+      <c r="B139" t="s">
+        <v>24</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>11</v>
+      </c>
+      <c r="B140" t="s">
+        <v>26</v>
+      </c>
+      <c r="C140" t="s">
+        <v>70</v>
+      </c>
+      <c r="D140" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>11</v>
+      </c>
+      <c r="B141" t="s">
+        <v>50</v>
+      </c>
+      <c r="C141" t="s">
+        <v>94</v>
+      </c>
+      <c r="D141" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>11</v>
+      </c>
+      <c r="B142" t="s">
+        <v>53</v>
+      </c>
+      <c r="C142" t="s">
+        <v>97</v>
+      </c>
+      <c r="D142" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>11</v>
+      </c>
+      <c r="B143" t="s">
+        <v>43</v>
+      </c>
+      <c r="C143" t="s">
+        <v>87</v>
+      </c>
+      <c r="D143" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>11</v>
+      </c>
+      <c r="B144" t="s">
+        <v>45</v>
+      </c>
+      <c r="C144" t="s">
+        <v>89</v>
+      </c>
+      <c r="D144" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>11</v>
+      </c>
+      <c r="B145" t="s">
+        <v>51</v>
+      </c>
+      <c r="C145" t="s">
+        <v>95</v>
+      </c>
+      <c r="D145" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>11</v>
+      </c>
+      <c r="B146" t="s">
+        <v>56</v>
+      </c>
+      <c r="C146" t="s">
+        <v>100</v>
+      </c>
+      <c r="D146" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>11</v>
+      </c>
+      <c r="B147" t="s">
+        <v>57</v>
+      </c>
+      <c r="C147" t="s">
+        <v>101</v>
+      </c>
+      <c r="D147" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>11</v>
+      </c>
+      <c r="B148" t="s">
+        <v>48</v>
+      </c>
+      <c r="C148" t="s">
+        <v>92</v>
+      </c>
+      <c r="D148" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>12</v>
+      </c>
+      <c r="B149" t="s">
+        <v>49</v>
+      </c>
+      <c r="C149" t="s">
+        <v>93</v>
+      </c>
+      <c r="D149" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>12</v>
+      </c>
+      <c r="B150" t="s">
+        <v>16</v>
+      </c>
+      <c r="C150" t="s">
+        <v>60</v>
+      </c>
+      <c r="D150" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>12</v>
+      </c>
+      <c r="B151" t="s">
+        <v>17</v>
+      </c>
+      <c r="C151" t="s">
+        <v>61</v>
+      </c>
+      <c r="D151" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152" t="s">
+        <v>18</v>
+      </c>
+      <c r="C152" t="s">
+        <v>62</v>
+      </c>
+      <c r="D152" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>12</v>
+      </c>
+      <c r="B153" t="s">
+        <v>19</v>
+      </c>
+      <c r="C153" t="s">
+        <v>63</v>
+      </c>
+      <c r="D153" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>12</v>
+      </c>
+      <c r="B154" t="s">
+        <v>20</v>
+      </c>
+      <c r="C154" t="s">
+        <v>64</v>
+      </c>
+      <c r="D154" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155" t="s">
+        <v>21</v>
+      </c>
+      <c r="C155" t="s">
+        <v>65</v>
+      </c>
+      <c r="D155" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>12</v>
+      </c>
+      <c r="B156" t="s">
+        <v>41</v>
+      </c>
+      <c r="C156" t="s">
+        <v>85</v>
+      </c>
+      <c r="D156" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>12</v>
+      </c>
+      <c r="B157" t="s">
+        <v>22</v>
+      </c>
+      <c r="C157" t="s">
+        <v>66</v>
+      </c>
+      <c r="D157" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>12</v>
+      </c>
+      <c r="B158" t="s">
+        <v>42</v>
+      </c>
+      <c r="C158" t="s">
+        <v>86</v>
+      </c>
+      <c r="D158" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>12</v>
+      </c>
+      <c r="B159" t="s">
+        <v>32</v>
+      </c>
+      <c r="C159" t="s">
+        <v>76</v>
+      </c>
+      <c r="D159" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>12</v>
+      </c>
+      <c r="B160" t="s">
+        <v>33</v>
+      </c>
+      <c r="C160" t="s">
+        <v>77</v>
+      </c>
+      <c r="D160" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>12</v>
+      </c>
+      <c r="B161" t="s">
+        <v>34</v>
+      </c>
+      <c r="C161" t="s">
+        <v>78</v>
+      </c>
+      <c r="D161" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>12</v>
+      </c>
+      <c r="B162" t="s">
+        <v>35</v>
+      </c>
+      <c r="C162" t="s">
+        <v>79</v>
+      </c>
+      <c r="D162" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>12</v>
+      </c>
+      <c r="B163" t="s">
+        <v>36</v>
+      </c>
+      <c r="C163" t="s">
+        <v>80</v>
+      </c>
+      <c r="D163" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" t="s">
+        <v>37</v>
+      </c>
+      <c r="C164" t="s">
+        <v>81</v>
+      </c>
+      <c r="D164" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>12</v>
+      </c>
+      <c r="B165" t="s">
+        <v>23</v>
+      </c>
+      <c r="C165" t="s">
+        <v>67</v>
+      </c>
+      <c r="D165" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>12</v>
+      </c>
+      <c r="B166" t="s">
+        <v>24</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>12</v>
+      </c>
+      <c r="B167" t="s">
+        <v>58</v>
+      </c>
+      <c r="C167" t="s">
+        <v>102</v>
+      </c>
+      <c r="D167" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>12</v>
+      </c>
+      <c r="B168" t="s">
+        <v>25</v>
+      </c>
+      <c r="C168" t="s">
+        <v>69</v>
+      </c>
+      <c r="D168" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>12</v>
+      </c>
+      <c r="B169" t="s">
+        <v>40</v>
+      </c>
+      <c r="C169" t="s">
+        <v>84</v>
+      </c>
+      <c r="D169" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>12</v>
+      </c>
+      <c r="B170" t="s">
+        <v>50</v>
+      </c>
+      <c r="C170" t="s">
+        <v>94</v>
+      </c>
+      <c r="D170" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>12</v>
+      </c>
+      <c r="B171" t="s">
+        <v>55</v>
+      </c>
+      <c r="C171" t="s">
+        <v>99</v>
+      </c>
+      <c r="D171" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>12</v>
+      </c>
+      <c r="B172" t="s">
+        <v>45</v>
+      </c>
+      <c r="C172" t="s">
+        <v>89</v>
+      </c>
+      <c r="D172" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>12</v>
+      </c>
+      <c r="B173" t="s">
+        <v>56</v>
+      </c>
+      <c r="C173" t="s">
+        <v>100</v>
+      </c>
+      <c r="D173" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>12</v>
+      </c>
+      <c r="B174" t="s">
+        <v>57</v>
+      </c>
+      <c r="C174" t="s">
+        <v>101</v>
+      </c>
+      <c r="D174" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>12</v>
+      </c>
+      <c r="B175" t="s">
+        <v>28</v>
+      </c>
+      <c r="C175" t="s">
+        <v>72</v>
+      </c>
+      <c r="D175" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>12</v>
+      </c>
+      <c r="B176" t="s">
+        <v>29</v>
+      </c>
+      <c r="C176" t="s">
+        <v>73</v>
+      </c>
+      <c r="D176" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>13</v>
+      </c>
+      <c r="B177" t="s">
+        <v>30</v>
+      </c>
+      <c r="C177" t="s">
+        <v>74</v>
+      </c>
+      <c r="D177" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>13</v>
+      </c>
+      <c r="B178" t="s">
+        <v>15</v>
+      </c>
+      <c r="C178" t="s">
+        <v>59</v>
+      </c>
+      <c r="D178" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>13</v>
+      </c>
+      <c r="B179" t="s">
+        <v>17</v>
+      </c>
+      <c r="C179" t="s">
+        <v>61</v>
+      </c>
+      <c r="D179" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>13</v>
+      </c>
+      <c r="B180" t="s">
+        <v>19</v>
+      </c>
+      <c r="C180" t="s">
+        <v>63</v>
+      </c>
+      <c r="D180" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>13</v>
+      </c>
+      <c r="B181" t="s">
+        <v>21</v>
+      </c>
+      <c r="C181" t="s">
+        <v>65</v>
+      </c>
+      <c r="D181" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>13</v>
+      </c>
+      <c r="B182" t="s">
+        <v>41</v>
+      </c>
+      <c r="C182" t="s">
+        <v>85</v>
+      </c>
+      <c r="D182" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>13</v>
+      </c>
+      <c r="B183" t="s">
+        <v>22</v>
+      </c>
+      <c r="C183" t="s">
+        <v>66</v>
+      </c>
+      <c r="D183" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>13</v>
+      </c>
+      <c r="B184" t="s">
+        <v>42</v>
+      </c>
+      <c r="C184" t="s">
+        <v>86</v>
+      </c>
+      <c r="D184" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>13</v>
+      </c>
+      <c r="B185" t="s">
+        <v>32</v>
+      </c>
+      <c r="C185" t="s">
+        <v>76</v>
+      </c>
+      <c r="D185" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>13</v>
+      </c>
+      <c r="B186" t="s">
+        <v>33</v>
+      </c>
+      <c r="C186" t="s">
+        <v>77</v>
+      </c>
+      <c r="D186" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>13</v>
+      </c>
+      <c r="B187" t="s">
+        <v>34</v>
+      </c>
+      <c r="C187" t="s">
+        <v>78</v>
+      </c>
+      <c r="D187" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>13</v>
+      </c>
+      <c r="B188" t="s">
+        <v>35</v>
+      </c>
+      <c r="C188" t="s">
+        <v>79</v>
+      </c>
+      <c r="D188" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>13</v>
+      </c>
+      <c r="B189" t="s">
+        <v>36</v>
+      </c>
+      <c r="C189" t="s">
+        <v>80</v>
+      </c>
+      <c r="D189" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>13</v>
+      </c>
+      <c r="B190" t="s">
+        <v>38</v>
+      </c>
+      <c r="C190" t="s">
+        <v>82</v>
+      </c>
+      <c r="D190" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>13</v>
+      </c>
+      <c r="B191" t="s">
+        <v>39</v>
+      </c>
+      <c r="C191" t="s">
+        <v>83</v>
+      </c>
+      <c r="D191" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>13</v>
+      </c>
+      <c r="B192" t="s">
+        <v>23</v>
+      </c>
+      <c r="C192" t="s">
+        <v>67</v>
+      </c>
+      <c r="D192" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>13</v>
+      </c>
+      <c r="B193" t="s">
+        <v>24</v>
+      </c>
+      <c r="C193" t="s">
+        <v>68</v>
+      </c>
+      <c r="D193" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>13</v>
+      </c>
+      <c r="B194" t="s">
+        <v>40</v>
+      </c>
+      <c r="C194" t="s">
+        <v>84</v>
+      </c>
+      <c r="D194" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>13</v>
+      </c>
+      <c r="B195" t="s">
+        <v>26</v>
+      </c>
+      <c r="C195" t="s">
+        <v>70</v>
+      </c>
+      <c r="D195" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>13</v>
+      </c>
+      <c r="B196" t="s">
+        <v>50</v>
+      </c>
+      <c r="C196" t="s">
+        <v>94</v>
+      </c>
+      <c r="D196" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>13</v>
+      </c>
+      <c r="B197" t="s">
+        <v>43</v>
+      </c>
+      <c r="C197" t="s">
+        <v>87</v>
+      </c>
+      <c r="D197" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>13</v>
+      </c>
+      <c r="B198" t="s">
+        <v>54</v>
+      </c>
+      <c r="C198" t="s">
+        <v>98</v>
+      </c>
+      <c r="D198" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>13</v>
+      </c>
+      <c r="B199" t="s">
+        <v>55</v>
+      </c>
+      <c r="C199" t="s">
+        <v>99</v>
+      </c>
+      <c r="D199" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>13</v>
+      </c>
+      <c r="B200" t="s">
+        <v>46</v>
+      </c>
+      <c r="C200" t="s">
+        <v>90</v>
+      </c>
+      <c r="D200" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>13</v>
+      </c>
+      <c r="B201" t="s">
+        <v>47</v>
+      </c>
+      <c r="C201" t="s">
+        <v>91</v>
+      </c>
+      <c r="D201" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>13</v>
+      </c>
+      <c r="B202" t="s">
+        <v>44</v>
+      </c>
+      <c r="C202" t="s">
+        <v>88</v>
+      </c>
+      <c r="D202" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>13</v>
+      </c>
+      <c r="B203" t="s">
+        <v>57</v>
+      </c>
+      <c r="C203" t="s">
+        <v>101</v>
+      </c>
+      <c r="D203" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>13</v>
+      </c>
+      <c r="B204" t="s">
+        <v>48</v>
+      </c>
+      <c r="C204" t="s">
+        <v>92</v>
+      </c>
+      <c r="D204" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>13</v>
+      </c>
+      <c r="B205" t="s">
+        <v>28</v>
+      </c>
+      <c r="C205" t="s">
+        <v>72</v>
+      </c>
+      <c r="D205" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>13</v>
+      </c>
+      <c r="B206" t="s">
+        <v>29</v>
+      </c>
+      <c r="C206" t="s">
+        <v>73</v>
+      </c>
+      <c r="D206" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>14</v>
+      </c>
+      <c r="B207" t="s">
+        <v>17</v>
+      </c>
+      <c r="C207" t="s">
+        <v>61</v>
+      </c>
+      <c r="D207" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>14</v>
+      </c>
+      <c r="B208" t="s">
+        <v>19</v>
+      </c>
+      <c r="C208" t="s">
+        <v>63</v>
+      </c>
+      <c r="D208" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>14</v>
+      </c>
+      <c r="B209" t="s">
+        <v>21</v>
+      </c>
+      <c r="C209" t="s">
+        <v>65</v>
+      </c>
+      <c r="D209" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>14</v>
+      </c>
+      <c r="B210" t="s">
+        <v>41</v>
+      </c>
+      <c r="C210" t="s">
+        <v>85</v>
+      </c>
+      <c r="D210" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>14</v>
+      </c>
+      <c r="B211" t="s">
+        <v>22</v>
+      </c>
+      <c r="C211" t="s">
+        <v>66</v>
+      </c>
+      <c r="D211" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>14</v>
+      </c>
+      <c r="B212" t="s">
+        <v>42</v>
+      </c>
+      <c r="C212" t="s">
+        <v>86</v>
+      </c>
+      <c r="D212" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>14</v>
+      </c>
+      <c r="B213" t="s">
+        <v>32</v>
+      </c>
+      <c r="C213" t="s">
+        <v>76</v>
+      </c>
+      <c r="D213" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>14</v>
+      </c>
+      <c r="B214" t="s">
+        <v>33</v>
+      </c>
+      <c r="C214" t="s">
+        <v>77</v>
+      </c>
+      <c r="D214" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>14</v>
+      </c>
+      <c r="B215" t="s">
+        <v>34</v>
+      </c>
+      <c r="C215" t="s">
+        <v>78</v>
+      </c>
+      <c r="D215" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>14</v>
+      </c>
+      <c r="B216" t="s">
+        <v>35</v>
+      </c>
+      <c r="C216" t="s">
+        <v>79</v>
+      </c>
+      <c r="D216" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>14</v>
+      </c>
+      <c r="B217" t="s">
+        <v>36</v>
+      </c>
+      <c r="C217" t="s">
+        <v>80</v>
+      </c>
+      <c r="D217" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>14</v>
+      </c>
+      <c r="B218" t="s">
+        <v>37</v>
+      </c>
+      <c r="C218" t="s">
+        <v>81</v>
+      </c>
+      <c r="D218" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>14</v>
+      </c>
+      <c r="B219" t="s">
+        <v>39</v>
+      </c>
+      <c r="C219" t="s">
+        <v>83</v>
+      </c>
+      <c r="D219" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>14</v>
+      </c>
+      <c r="B220" t="s">
+        <v>23</v>
+      </c>
+      <c r="C220" t="s">
+        <v>67</v>
+      </c>
+      <c r="D220" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>14</v>
+      </c>
+      <c r="B221" t="s">
+        <v>24</v>
+      </c>
+      <c r="C221" t="s">
+        <v>68</v>
+      </c>
+      <c r="D221" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>14</v>
+      </c>
+      <c r="B222" t="s">
+        <v>40</v>
+      </c>
+      <c r="C222" t="s">
+        <v>84</v>
+      </c>
+      <c r="D222" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>14</v>
+      </c>
+      <c r="B223" t="s">
+        <v>26</v>
+      </c>
+      <c r="C223" t="s">
+        <v>70</v>
+      </c>
+      <c r="D223" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>14</v>
+      </c>
+      <c r="B224" t="s">
+        <v>52</v>
+      </c>
+      <c r="C224" t="s">
+        <v>96</v>
+      </c>
+      <c r="D224" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>14</v>
+      </c>
+      <c r="B225" t="s">
+        <v>53</v>
+      </c>
+      <c r="C225" t="s">
+        <v>97</v>
+      </c>
+      <c r="D225" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>14</v>
+      </c>
+      <c r="B226" t="s">
+        <v>43</v>
+      </c>
+      <c r="C226" t="s">
+        <v>87</v>
+      </c>
+      <c r="D226" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>14</v>
+      </c>
+      <c r="B227" t="s">
+        <v>54</v>
+      </c>
+      <c r="C227" t="s">
+        <v>98</v>
+      </c>
+      <c r="D227" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>14</v>
+      </c>
+      <c r="B228" t="s">
+        <v>55</v>
+      </c>
+      <c r="C228" t="s">
+        <v>99</v>
+      </c>
+      <c r="D228" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>14</v>
+      </c>
+      <c r="B229" t="s">
+        <v>27</v>
+      </c>
+      <c r="C229" t="s">
+        <v>71</v>
+      </c>
+      <c r="D229" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>14</v>
+      </c>
+      <c r="B230" t="s">
+        <v>45</v>
+      </c>
+      <c r="C230" t="s">
+        <v>89</v>
+      </c>
+      <c r="D230" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>14</v>
+      </c>
+      <c r="B231" t="s">
+        <v>46</v>
+      </c>
+      <c r="C231" t="s">
+        <v>90</v>
+      </c>
+      <c r="D231" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>14</v>
+      </c>
+      <c r="B232" t="s">
+        <v>51</v>
+      </c>
+      <c r="C232" t="s">
+        <v>95</v>
+      </c>
+      <c r="D232" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>14</v>
+      </c>
+      <c r="B233" t="s">
+        <v>56</v>
+      </c>
+      <c r="C233" t="s">
+        <v>100</v>
+      </c>
+      <c r="D233" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>14</v>
+      </c>
+      <c r="B234" t="s">
+        <v>47</v>
+      </c>
+      <c r="C234" t="s">
+        <v>91</v>
+      </c>
+      <c r="D234" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>14</v>
+      </c>
+      <c r="B235" t="s">
+        <v>44</v>
+      </c>
+      <c r="C235" t="s">
+        <v>88</v>
+      </c>
+      <c r="D235" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
+        <v>14</v>
+      </c>
+      <c r="B236" t="s">
+        <v>57</v>
+      </c>
+      <c r="C236" t="s">
+        <v>101</v>
+      </c>
+      <c r="D236" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" t="s">
+        <v>14</v>
+      </c>
+      <c r="B237" t="s">
+        <v>48</v>
+      </c>
+      <c r="C237" t="s">
+        <v>92</v>
+      </c>
+      <c r="D237" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" t="s">
+        <v>14</v>
+      </c>
+      <c r="B238" t="s">
+        <v>28</v>
+      </c>
+      <c r="C238" t="s">
+        <v>72</v>
+      </c>
+      <c r="D238" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" t="s">
+        <v>14</v>
+      </c>
+      <c r="B239" t="s">
+        <v>29</v>
+      </c>
+      <c r="C239" t="s">
+        <v>73</v>
+      </c>
+      <c r="D239" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Plantilla_RA_per_Materia_Ordenada.xlsx
+++ b/Plantilla_RA_per_Materia_Ordenada.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albert/Downloads/Formulari_RA_Professors_GitHub copia/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4716360-D037-F343-9696-672AB77CD05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="22960" yWindow="0" windowWidth="21840" windowHeight="25200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="107">
   <si>
     <t>Matèria</t>
   </si>
@@ -193,9 +199,6 @@
     <t>RA24</t>
   </si>
   <si>
-    <t>Comprender como interactúan los elementos dentro de los sistemas y entre ellos desde un pensamiento sistémico; así como cuestionar el statu quo, desde un pensamiento crítico y contextualizar los problemas socioambientales en términos espaciales, temporales, g locales con el fin de identificar enfoques que permitan prevenir y anticipar problemas así como mitigar y adaptarse a los ya generados.</t>
-  </si>
-  <si>
     <t>Identificar la responsabilidad política y reclamar la rendición de cuentas por comportamientos insostenibles, desde la conducta personal y profesional, así como exigir políticas eficaces para la sostenibilidad.</t>
   </si>
   <si>
@@ -250,9 +253,6 @@
     <t>Saber relacionarse y comunicarse, así como poseer equilibrio emocional en las variadas circunstancias de la actividad profesional. (A11)</t>
   </si>
   <si>
-    <t>Trabajar en equipo con los compañeros como concisión necesaria para la mejora de su actividad profesional, compartiendo saberes y experiencias. (A12)</t>
-  </si>
-  <si>
     <t>Dinamizar los contextos en los que interviene, promoviendo la construcción participada de reglas de convivencia democrática, y afrontar y resolver de forma colaborativa situaciones problemáticas y conflictos interpersonales de naturaleza diversa. (A13)</t>
   </si>
   <si>
@@ -329,13 +329,25 @@
   </si>
   <si>
     <t>Habilidades o destrezas</t>
+  </si>
+  <si>
+    <t>Prácticas Académicas Externas</t>
+  </si>
+  <si>
+    <t>Trabajo de Fin de Grado</t>
+  </si>
+  <si>
+    <t>Comprender como interactúan los elementos dentro de los sistemas y entre ellos desde un pensamiento sistémico; así como cuestionar el statu quo, desde un pensamiento crítico y contextualizar los problemas socioambientales en términos espaciales, temporales, locales con el fin de identificar enfoques que permitan prevenir y anticipar problemas así como mitigar y adaptarse a los ya generados.</t>
+  </si>
+  <si>
+    <t>Trabajar en equipo con los compañeros como condición necesaria para la mejora de su actividad profesional, compartiendo saberes y experiencias. (A12)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,13 +410,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -442,7 +462,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -476,6 +496,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -510,9 +531,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -685,14 +707,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E239"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A171" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C187" sqref="C187"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -709,7 +736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -717,13 +744,13 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -731,13 +758,13 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -745,13 +772,13 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -759,13 +786,13 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -773,13 +800,13 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -787,13 +814,13 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -801,13 +828,13 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -815,13 +842,13 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -829,13 +856,13 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -843,13 +870,13 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -857,13 +884,13 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -871,13 +898,13 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -885,13 +912,13 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -899,13 +926,13 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -913,13 +940,13 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -927,13 +954,13 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -941,13 +968,13 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -955,13 +982,13 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -969,13 +996,13 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -983,13 +1010,13 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -997,13 +1024,13 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1011,13 +1038,13 @@
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1025,13 +1052,13 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1039,13 +1066,13 @@
         <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1053,13 +1080,13 @@
         <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1067,13 +1094,13 @@
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1081,13 +1108,13 @@
         <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1095,13 +1122,13 @@
         <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1109,13 +1136,13 @@
         <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -1123,13 +1150,13 @@
         <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1137,13 +1164,13 @@
         <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1151,13 +1178,13 @@
         <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1165,13 +1192,13 @@
         <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1179,13 +1206,13 @@
         <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D35" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1193,13 +1220,13 @@
         <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D36" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -1207,13 +1234,13 @@
         <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D37" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1221,13 +1248,13 @@
         <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D38" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1235,13 +1262,13 @@
         <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D39" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -1249,13 +1276,13 @@
         <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D40" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1263,13 +1290,13 @@
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="D41" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -1277,13 +1304,13 @@
         <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D42" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -1291,13 +1318,13 @@
         <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D43" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1305,13 +1332,13 @@
         <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D44" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -1319,13 +1346,13 @@
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D45" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1333,13 +1360,13 @@
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D46" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1347,13 +1374,13 @@
         <v>32</v>
       </c>
       <c r="C47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D47" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1361,13 +1388,13 @@
         <v>33</v>
       </c>
       <c r="C48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D48" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1375,13 +1402,13 @@
         <v>34</v>
       </c>
       <c r="C49" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D49" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1389,13 +1416,13 @@
         <v>39</v>
       </c>
       <c r="C50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D50" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1403,13 +1430,13 @@
         <v>23</v>
       </c>
       <c r="C51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D51" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1417,13 +1444,13 @@
         <v>24</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D52" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -1431,13 +1458,13 @@
         <v>25</v>
       </c>
       <c r="C53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D53" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -1445,13 +1472,13 @@
         <v>40</v>
       </c>
       <c r="C54" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D54" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -1459,13 +1486,13 @@
         <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D55" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -1473,13 +1500,13 @@
         <v>43</v>
       </c>
       <c r="C56" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -1487,13 +1514,13 @@
         <v>44</v>
       </c>
       <c r="C57" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D57" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -1501,13 +1528,13 @@
         <v>28</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D58" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -1515,13 +1542,13 @@
         <v>17</v>
       </c>
       <c r="C59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D59" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -1529,13 +1556,13 @@
         <v>18</v>
       </c>
       <c r="C60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D60" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -1543,13 +1570,13 @@
         <v>20</v>
       </c>
       <c r="C61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D61" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -1557,13 +1584,13 @@
         <v>41</v>
       </c>
       <c r="C62" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D62" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -1571,13 +1598,13 @@
         <v>31</v>
       </c>
       <c r="C63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D63" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -1585,13 +1612,13 @@
         <v>42</v>
       </c>
       <c r="C64" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D64" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -1599,13 +1626,13 @@
         <v>32</v>
       </c>
       <c r="C65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D65" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -1613,13 +1640,13 @@
         <v>33</v>
       </c>
       <c r="C66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D66" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -1627,13 +1654,13 @@
         <v>34</v>
       </c>
       <c r="C67" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D67" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -1641,13 +1668,13 @@
         <v>36</v>
       </c>
       <c r="C68" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D68" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -1655,13 +1682,13 @@
         <v>37</v>
       </c>
       <c r="C69" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D69" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -1669,13 +1696,13 @@
         <v>38</v>
       </c>
       <c r="C70" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -1683,13 +1710,13 @@
         <v>39</v>
       </c>
       <c r="C71" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D71" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -1697,13 +1724,13 @@
         <v>23</v>
       </c>
       <c r="C72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D72" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -1711,13 +1738,13 @@
         <v>24</v>
       </c>
       <c r="C73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D73" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -1725,13 +1752,13 @@
         <v>25</v>
       </c>
       <c r="C74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D74" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -1739,13 +1766,13 @@
         <v>40</v>
       </c>
       <c r="C75" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D75" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -1753,13 +1780,13 @@
         <v>26</v>
       </c>
       <c r="C76" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D76" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -1767,13 +1794,13 @@
         <v>27</v>
       </c>
       <c r="C77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D77" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -1781,13 +1808,13 @@
         <v>45</v>
       </c>
       <c r="C78" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D78" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -1795,13 +1822,13 @@
         <v>46</v>
       </c>
       <c r="C79" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D79" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -1809,13 +1836,13 @@
         <v>47</v>
       </c>
       <c r="C80" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D80" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -1823,13 +1850,13 @@
         <v>48</v>
       </c>
       <c r="C81" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D81" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -1837,13 +1864,13 @@
         <v>28</v>
       </c>
       <c r="C82" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D82" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -1851,13 +1878,13 @@
         <v>29</v>
       </c>
       <c r="C83" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D83" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -1865,13 +1892,13 @@
         <v>49</v>
       </c>
       <c r="C84" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D84" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -1879,13 +1906,13 @@
         <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D85" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -1893,13 +1920,13 @@
         <v>17</v>
       </c>
       <c r="C86" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D86" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -1907,13 +1934,13 @@
         <v>18</v>
       </c>
       <c r="C87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D87" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -1921,13 +1948,13 @@
         <v>34</v>
       </c>
       <c r="C88" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D88" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -1935,13 +1962,13 @@
         <v>36</v>
       </c>
       <c r="C89" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D89" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -1949,13 +1976,13 @@
         <v>23</v>
       </c>
       <c r="C90" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D90" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -1963,13 +1990,13 @@
         <v>24</v>
       </c>
       <c r="C91" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D91" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -1977,13 +2004,13 @@
         <v>25</v>
       </c>
       <c r="C92" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D92" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -1991,13 +2018,13 @@
         <v>50</v>
       </c>
       <c r="C93" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D93" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -2005,13 +2032,13 @@
         <v>27</v>
       </c>
       <c r="C94" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D94" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -2019,13 +2046,13 @@
         <v>45</v>
       </c>
       <c r="C95" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D95" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -2033,13 +2060,13 @@
         <v>51</v>
       </c>
       <c r="C96" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D96" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>10</v>
       </c>
@@ -2047,13 +2074,13 @@
         <v>17</v>
       </c>
       <c r="C97" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D97" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>10</v>
       </c>
@@ -2061,13 +2088,13 @@
         <v>18</v>
       </c>
       <c r="C98" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D98" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>10</v>
       </c>
@@ -2075,13 +2102,13 @@
         <v>19</v>
       </c>
       <c r="C99" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D99" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>10</v>
       </c>
@@ -2089,13 +2116,13 @@
         <v>20</v>
       </c>
       <c r="C100" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D100" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>10</v>
       </c>
@@ -2103,13 +2130,13 @@
         <v>21</v>
       </c>
       <c r="C101" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D101" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -2117,13 +2144,13 @@
         <v>41</v>
       </c>
       <c r="C102" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D102" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>10</v>
       </c>
@@ -2131,13 +2158,13 @@
         <v>31</v>
       </c>
       <c r="C103" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D103" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>10</v>
       </c>
@@ -2145,13 +2172,13 @@
         <v>22</v>
       </c>
       <c r="C104" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D104" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>10</v>
       </c>
@@ -2159,13 +2186,13 @@
         <v>42</v>
       </c>
       <c r="C105" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D105" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -2173,13 +2200,13 @@
         <v>32</v>
       </c>
       <c r="C106" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D106" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>10</v>
       </c>
@@ -2187,13 +2214,13 @@
         <v>33</v>
       </c>
       <c r="C107" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D107" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>10</v>
       </c>
@@ -2201,13 +2228,13 @@
         <v>34</v>
       </c>
       <c r="C108" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D108" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>10</v>
       </c>
@@ -2215,13 +2242,13 @@
         <v>35</v>
       </c>
       <c r="C109" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D109" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>10</v>
       </c>
@@ -2229,13 +2256,13 @@
         <v>36</v>
       </c>
       <c r="C110" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D110" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>10</v>
       </c>
@@ -2243,13 +2270,13 @@
         <v>37</v>
       </c>
       <c r="C111" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D111" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -2257,13 +2284,13 @@
         <v>38</v>
       </c>
       <c r="C112" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D112" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>10</v>
       </c>
@@ -2271,13 +2298,13 @@
         <v>39</v>
       </c>
       <c r="C113" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D113" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>10</v>
       </c>
@@ -2285,13 +2312,13 @@
         <v>23</v>
       </c>
       <c r="C114" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D114" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>10</v>
       </c>
@@ -2299,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="C115" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D115" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>10</v>
       </c>
@@ -2313,13 +2340,13 @@
         <v>50</v>
       </c>
       <c r="C116" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D116" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>10</v>
       </c>
@@ -2327,13 +2354,13 @@
         <v>52</v>
       </c>
       <c r="C117" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D117" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>10</v>
       </c>
@@ -2341,13 +2368,13 @@
         <v>53</v>
       </c>
       <c r="C118" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D118" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -2355,13 +2382,13 @@
         <v>43</v>
       </c>
       <c r="C119" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D119" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -2369,13 +2396,13 @@
         <v>54</v>
       </c>
       <c r="C120" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D120" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -2383,13 +2410,13 @@
         <v>55</v>
       </c>
       <c r="C121" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D121" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>10</v>
       </c>
@@ -2397,13 +2424,13 @@
         <v>45</v>
       </c>
       <c r="C122" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D122" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -2411,13 +2438,13 @@
         <v>46</v>
       </c>
       <c r="C123" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D123" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>10</v>
       </c>
@@ -2425,13 +2452,13 @@
         <v>51</v>
       </c>
       <c r="C124" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D124" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -2439,13 +2466,13 @@
         <v>56</v>
       </c>
       <c r="C125" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D125" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>10</v>
       </c>
@@ -2453,13 +2480,13 @@
         <v>47</v>
       </c>
       <c r="C126" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D126" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -2467,13 +2494,13 @@
         <v>44</v>
       </c>
       <c r="C127" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D127" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>10</v>
       </c>
@@ -2481,13 +2508,13 @@
         <v>57</v>
       </c>
       <c r="C128" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D128" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>10</v>
       </c>
@@ -2495,13 +2522,13 @@
         <v>48</v>
       </c>
       <c r="C129" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D129" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>10</v>
       </c>
@@ -2509,13 +2536,13 @@
         <v>28</v>
       </c>
       <c r="C130" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D130" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>10</v>
       </c>
@@ -2523,13 +2550,13 @@
         <v>29</v>
       </c>
       <c r="C131" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D131" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>11</v>
       </c>
@@ -2537,13 +2564,13 @@
         <v>18</v>
       </c>
       <c r="C132" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D132" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>11</v>
       </c>
@@ -2551,13 +2578,13 @@
         <v>21</v>
       </c>
       <c r="C133" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D133" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>11</v>
       </c>
@@ -2565,13 +2592,13 @@
         <v>41</v>
       </c>
       <c r="C134" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D134" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>11</v>
       </c>
@@ -2579,13 +2606,13 @@
         <v>31</v>
       </c>
       <c r="C135" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D135" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>11</v>
       </c>
@@ -2593,13 +2620,13 @@
         <v>34</v>
       </c>
       <c r="C136" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D136" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>11</v>
       </c>
@@ -2607,13 +2634,13 @@
         <v>39</v>
       </c>
       <c r="C137" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D137" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>11</v>
       </c>
@@ -2621,13 +2648,13 @@
         <v>23</v>
       </c>
       <c r="C138" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D138" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>11</v>
       </c>
@@ -2635,13 +2662,13 @@
         <v>24</v>
       </c>
       <c r="C139" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D139" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>11</v>
       </c>
@@ -2649,13 +2676,13 @@
         <v>26</v>
       </c>
       <c r="C140" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D140" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -2663,13 +2690,13 @@
         <v>50</v>
       </c>
       <c r="C141" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D141" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>11</v>
       </c>
@@ -2677,13 +2704,13 @@
         <v>53</v>
       </c>
       <c r="C142" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D142" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>11</v>
       </c>
@@ -2691,13 +2718,13 @@
         <v>43</v>
       </c>
       <c r="C143" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D143" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>11</v>
       </c>
@@ -2705,13 +2732,13 @@
         <v>45</v>
       </c>
       <c r="C144" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D144" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>11</v>
       </c>
@@ -2719,13 +2746,13 @@
         <v>51</v>
       </c>
       <c r="C145" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D145" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>11</v>
       </c>
@@ -2733,13 +2760,13 @@
         <v>56</v>
       </c>
       <c r="C146" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D146" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>11</v>
       </c>
@@ -2747,13 +2774,13 @@
         <v>57</v>
       </c>
       <c r="C147" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D147" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>11</v>
       </c>
@@ -2761,13 +2788,13 @@
         <v>48</v>
       </c>
       <c r="C148" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D148" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>12</v>
       </c>
@@ -2775,13 +2802,13 @@
         <v>49</v>
       </c>
       <c r="C149" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D149" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -2789,13 +2816,13 @@
         <v>16</v>
       </c>
       <c r="C150" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D150" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>12</v>
       </c>
@@ -2803,13 +2830,13 @@
         <v>17</v>
       </c>
       <c r="C151" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D151" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>12</v>
       </c>
@@ -2817,13 +2844,13 @@
         <v>18</v>
       </c>
       <c r="C152" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D152" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>12</v>
       </c>
@@ -2831,13 +2858,13 @@
         <v>19</v>
       </c>
       <c r="C153" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D153" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>12</v>
       </c>
@@ -2845,13 +2872,13 @@
         <v>20</v>
       </c>
       <c r="C154" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D154" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>12</v>
       </c>
@@ -2859,13 +2886,13 @@
         <v>21</v>
       </c>
       <c r="C155" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D155" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>12</v>
       </c>
@@ -2873,13 +2900,13 @@
         <v>41</v>
       </c>
       <c r="C156" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D156" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>12</v>
       </c>
@@ -2887,13 +2914,13 @@
         <v>22</v>
       </c>
       <c r="C157" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D157" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>12</v>
       </c>
@@ -2901,13 +2928,13 @@
         <v>42</v>
       </c>
       <c r="C158" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D158" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>12</v>
       </c>
@@ -2915,13 +2942,13 @@
         <v>32</v>
       </c>
       <c r="C159" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D159" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>12</v>
       </c>
@@ -2929,13 +2956,13 @@
         <v>33</v>
       </c>
       <c r="C160" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D160" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>12</v>
       </c>
@@ -2943,13 +2970,13 @@
         <v>34</v>
       </c>
       <c r="C161" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D161" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>12</v>
       </c>
@@ -2957,13 +2984,13 @@
         <v>35</v>
       </c>
       <c r="C162" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D162" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>12</v>
       </c>
@@ -2971,13 +2998,13 @@
         <v>36</v>
       </c>
       <c r="C163" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D163" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>12</v>
       </c>
@@ -2985,13 +3012,13 @@
         <v>37</v>
       </c>
       <c r="C164" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D164" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>12</v>
       </c>
@@ -2999,13 +3026,13 @@
         <v>23</v>
       </c>
       <c r="C165" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D165" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>12</v>
       </c>
@@ -3013,13 +3040,13 @@
         <v>24</v>
       </c>
       <c r="C166" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D166" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>12</v>
       </c>
@@ -3027,13 +3054,13 @@
         <v>58</v>
       </c>
       <c r="C167" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D167" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>12</v>
       </c>
@@ -3041,13 +3068,13 @@
         <v>25</v>
       </c>
       <c r="C168" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D168" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>12</v>
       </c>
@@ -3055,13 +3082,13 @@
         <v>40</v>
       </c>
       <c r="C169" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D169" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>12</v>
       </c>
@@ -3069,13 +3096,13 @@
         <v>50</v>
       </c>
       <c r="C170" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D170" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>12</v>
       </c>
@@ -3083,13 +3110,13 @@
         <v>55</v>
       </c>
       <c r="C171" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D171" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>12</v>
       </c>
@@ -3097,13 +3124,13 @@
         <v>45</v>
       </c>
       <c r="C172" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D172" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>12</v>
       </c>
@@ -3111,13 +3138,13 @@
         <v>56</v>
       </c>
       <c r="C173" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D173" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>12</v>
       </c>
@@ -3125,13 +3152,13 @@
         <v>57</v>
       </c>
       <c r="C174" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D174" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>12</v>
       </c>
@@ -3139,13 +3166,13 @@
         <v>28</v>
       </c>
       <c r="C175" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D175" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>12</v>
       </c>
@@ -3153,13 +3180,13 @@
         <v>29</v>
       </c>
       <c r="C176" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D176" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>13</v>
       </c>
@@ -3167,13 +3194,13 @@
         <v>30</v>
       </c>
       <c r="C177" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D177" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>13</v>
       </c>
@@ -3181,13 +3208,13 @@
         <v>15</v>
       </c>
       <c r="C178" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="D178" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>13</v>
       </c>
@@ -3195,13 +3222,13 @@
         <v>17</v>
       </c>
       <c r="C179" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D179" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>13</v>
       </c>
@@ -3209,13 +3236,13 @@
         <v>19</v>
       </c>
       <c r="C180" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D180" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>13</v>
       </c>
@@ -3223,13 +3250,13 @@
         <v>21</v>
       </c>
       <c r="C181" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D181" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>13</v>
       </c>
@@ -3237,13 +3264,13 @@
         <v>41</v>
       </c>
       <c r="C182" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D182" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>13</v>
       </c>
@@ -3251,13 +3278,13 @@
         <v>22</v>
       </c>
       <c r="C183" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D183" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>13</v>
       </c>
@@ -3265,13 +3292,13 @@
         <v>42</v>
       </c>
       <c r="C184" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D184" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>13</v>
       </c>
@@ -3279,13 +3306,13 @@
         <v>32</v>
       </c>
       <c r="C185" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D185" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>13</v>
       </c>
@@ -3293,13 +3320,13 @@
         <v>33</v>
       </c>
       <c r="C186" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D186" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>13</v>
       </c>
@@ -3307,13 +3334,13 @@
         <v>34</v>
       </c>
       <c r="C187" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D187" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>13</v>
       </c>
@@ -3321,13 +3348,13 @@
         <v>35</v>
       </c>
       <c r="C188" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D188" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>13</v>
       </c>
@@ -3335,13 +3362,13 @@
         <v>36</v>
       </c>
       <c r="C189" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D189" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>13</v>
       </c>
@@ -3349,13 +3376,13 @@
         <v>38</v>
       </c>
       <c r="C190" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D190" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>13</v>
       </c>
@@ -3363,13 +3390,13 @@
         <v>39</v>
       </c>
       <c r="C191" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D191" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>13</v>
       </c>
@@ -3377,13 +3404,13 @@
         <v>23</v>
       </c>
       <c r="C192" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D192" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>13</v>
       </c>
@@ -3391,13 +3418,13 @@
         <v>24</v>
       </c>
       <c r="C193" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D193" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>13</v>
       </c>
@@ -3405,13 +3432,13 @@
         <v>40</v>
       </c>
       <c r="C194" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D194" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>13</v>
       </c>
@@ -3419,13 +3446,13 @@
         <v>26</v>
       </c>
       <c r="C195" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D195" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>13</v>
       </c>
@@ -3433,13 +3460,13 @@
         <v>50</v>
       </c>
       <c r="C196" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D196" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>13</v>
       </c>
@@ -3447,13 +3474,13 @@
         <v>43</v>
       </c>
       <c r="C197" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D197" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>13</v>
       </c>
@@ -3461,13 +3488,13 @@
         <v>54</v>
       </c>
       <c r="C198" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D198" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>13</v>
       </c>
@@ -3475,13 +3502,13 @@
         <v>55</v>
       </c>
       <c r="C199" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D199" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>13</v>
       </c>
@@ -3489,13 +3516,13 @@
         <v>46</v>
       </c>
       <c r="C200" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D200" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>13</v>
       </c>
@@ -3503,13 +3530,13 @@
         <v>47</v>
       </c>
       <c r="C201" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D201" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>13</v>
       </c>
@@ -3517,13 +3544,13 @@
         <v>44</v>
       </c>
       <c r="C202" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D202" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>13</v>
       </c>
@@ -3531,13 +3558,13 @@
         <v>57</v>
       </c>
       <c r="C203" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D203" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>13</v>
       </c>
@@ -3545,13 +3572,13 @@
         <v>48</v>
       </c>
       <c r="C204" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D204" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>13</v>
       </c>
@@ -3559,13 +3586,13 @@
         <v>28</v>
       </c>
       <c r="C205" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D205" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>13</v>
       </c>
@@ -3573,13 +3600,13 @@
         <v>29</v>
       </c>
       <c r="C206" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D206" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>14</v>
       </c>
@@ -3587,13 +3614,13 @@
         <v>17</v>
       </c>
       <c r="C207" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D207" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>14</v>
       </c>
@@ -3601,13 +3628,13 @@
         <v>19</v>
       </c>
       <c r="C208" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D208" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>14</v>
       </c>
@@ -3615,13 +3642,13 @@
         <v>21</v>
       </c>
       <c r="C209" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D209" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>14</v>
       </c>
@@ -3629,13 +3656,13 @@
         <v>41</v>
       </c>
       <c r="C210" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D210" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>14</v>
       </c>
@@ -3643,13 +3670,13 @@
         <v>22</v>
       </c>
       <c r="C211" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D211" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>14</v>
       </c>
@@ -3657,13 +3684,13 @@
         <v>42</v>
       </c>
       <c r="C212" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D212" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>14</v>
       </c>
@@ -3671,13 +3698,13 @@
         <v>32</v>
       </c>
       <c r="C213" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D213" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>14</v>
       </c>
@@ -3685,13 +3712,13 @@
         <v>33</v>
       </c>
       <c r="C214" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D214" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>14</v>
       </c>
@@ -3699,13 +3726,13 @@
         <v>34</v>
       </c>
       <c r="C215" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D215" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>14</v>
       </c>
@@ -3713,13 +3740,13 @@
         <v>35</v>
       </c>
       <c r="C216" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D216" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>14</v>
       </c>
@@ -3727,13 +3754,13 @@
         <v>36</v>
       </c>
       <c r="C217" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D217" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>14</v>
       </c>
@@ -3741,13 +3768,13 @@
         <v>37</v>
       </c>
       <c r="C218" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D218" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>14</v>
       </c>
@@ -3755,13 +3782,13 @@
         <v>39</v>
       </c>
       <c r="C219" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D219" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>14</v>
       </c>
@@ -3769,13 +3796,13 @@
         <v>23</v>
       </c>
       <c r="C220" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D220" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>14</v>
       </c>
@@ -3783,13 +3810,13 @@
         <v>24</v>
       </c>
       <c r="C221" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D221" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>14</v>
       </c>
@@ -3797,13 +3824,13 @@
         <v>40</v>
       </c>
       <c r="C222" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D222" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>14</v>
       </c>
@@ -3811,13 +3838,13 @@
         <v>26</v>
       </c>
       <c r="C223" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D223" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>14</v>
       </c>
@@ -3825,13 +3852,13 @@
         <v>52</v>
       </c>
       <c r="C224" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D224" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>14</v>
       </c>
@@ -3839,13 +3866,13 @@
         <v>53</v>
       </c>
       <c r="C225" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D225" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>14</v>
       </c>
@@ -3853,13 +3880,13 @@
         <v>43</v>
       </c>
       <c r="C226" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D226" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>14</v>
       </c>
@@ -3867,13 +3894,13 @@
         <v>54</v>
       </c>
       <c r="C227" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D227" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>14</v>
       </c>
@@ -3881,13 +3908,13 @@
         <v>55</v>
       </c>
       <c r="C228" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D228" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>14</v>
       </c>
@@ -3895,13 +3922,13 @@
         <v>27</v>
       </c>
       <c r="C229" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D229" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>14</v>
       </c>
@@ -3909,13 +3936,13 @@
         <v>45</v>
       </c>
       <c r="C230" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D230" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>14</v>
       </c>
@@ -3923,13 +3950,13 @@
         <v>46</v>
       </c>
       <c r="C231" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D231" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>14</v>
       </c>
@@ -3937,13 +3964,13 @@
         <v>51</v>
       </c>
       <c r="C232" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D232" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>14</v>
       </c>
@@ -3951,13 +3978,13 @@
         <v>56</v>
       </c>
       <c r="C233" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D233" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>14</v>
       </c>
@@ -3965,13 +3992,13 @@
         <v>47</v>
       </c>
       <c r="C234" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D234" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>14</v>
       </c>
@@ -3979,13 +4006,13 @@
         <v>44</v>
       </c>
       <c r="C235" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D235" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>14</v>
       </c>
@@ -3993,13 +4020,13 @@
         <v>57</v>
       </c>
       <c r="C236" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D236" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>14</v>
       </c>
@@ -4007,13 +4034,13 @@
         <v>48</v>
       </c>
       <c r="C237" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D237" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>14</v>
       </c>
@@ -4021,13 +4048,13 @@
         <v>28</v>
       </c>
       <c r="C238" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D238" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>14</v>
       </c>
@@ -4035,9 +4062,19 @@
         <v>29</v>
       </c>
       <c r="C239" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D239" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
         <v>104</v>
       </c>
     </row>
